--- a/docs/StructureDefinition-nmdp-practitioner.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-nmdp-practitioner.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-nmdp-practitioner.xlsx
+++ b/docs/StructureDefinition-nmdp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
